--- a/Document/test.xlsx
+++ b/Document/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ExcelSheetHandler\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68EAE28-FAEB-44BE-8AC9-F1239B30F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9389EDE-6242-4EC9-A08F-044D77D90487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{292CC40C-9C8F-4593-A20F-8EA9881D63B5}"/>
   </bookViews>
@@ -36,46 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_attack</t>
+  </si>
+  <si>
+    <t>has_item_id</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AbC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478F1AF7-4464-4F83-8FB6-293AE30B80EC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -470,7 +463,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,29 +474,41 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1.2</v>
@@ -511,19 +516,31 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>555.21</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
